--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E080A22-AC77-4A88-A3B2-971EF87B60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -507,12 +506,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0:無調整
-1:調整本月   
-2:調整本月及季累計</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>調整記號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -527,10 +520,6 @@
   <si>
     <t>ProdCode</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PieceCode</t>
@@ -583,13 +572,22 @@
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND PerfDate = ,AND RepayType = ,AND PieceCode = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:同工作月調整   
+2:跨工作月調整</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0:撥款(計件代碼變更)
 2:部分償還
 3:提前結案
-4:人工維護
+4:人工維護(跨工作月新增)
 5:保費檢核追回</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -597,7 +595,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -941,9 +939,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1034,23 +1032,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1086,23 +1067,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1278,11 +1242,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1267,7 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1457,7 +1421,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>63</v>
@@ -1511,10 +1475,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
@@ -1550,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>64</v>
@@ -1571,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
@@ -1589,10 +1553,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>34</v>
@@ -1601,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1634,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>65</v>
@@ -1676,7 +1640,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>67</v>
@@ -1742,7 +1706,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>70</v>
@@ -1799,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1808,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>84</v>
@@ -1832,7 +1796,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>73</v>
@@ -1971,16 +1935,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>25</v>
@@ -1990,7 +1954,7 @@
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="36" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2078,7 +2042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2187,7 +2151,7 @@
         <v>115</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4105740D-F07F-4961-AD4A-03FA09AFD98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -425,10 +417,6 @@
   <si>
     <t>PerfDate</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>保費檢核時，重算更新</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>撥款為正值，部分償還、提前結案為負值，計件代碼變更、保費檢核追回為零</t>
@@ -576,11 +564,6 @@
   </si>
   <si>
     <t>AdjRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:同工作月調整   
-2:跨工作月調整</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -591,11 +574,21 @@
 5:保費檢核追回</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>調整後金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未調整(BS996業績重算時,只重算未調整)
+1:同工作月調整   
+2:跨工作月調整</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -788,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,10 +797,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -816,9 +809,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -828,7 +818,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,7 +845,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -869,9 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -939,9 +926,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -957,9 +944,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -997,9 +984,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,7 +1021,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1069,7 +1056,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1242,119 +1229,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.5546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="41" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="27"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.5546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="41" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="22"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="23"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="23"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="11"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1373,655 +1360,658 @@
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="37">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="41"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="A10" s="37">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>8</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>118</v>
+      <c r="G10" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="37">
         <f t="shared" ref="A11:A40" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A14" s="37">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="19">
+        <v>5</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="37">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="37">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="E19" s="19">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="37">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="19">
+        <v>6</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="37">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="19">
+        <v>6</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="37">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="19">
+        <v>6</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="37">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="19">
+        <v>8</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="37">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="19">
+        <v>8</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="37">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="19">
+        <v>8</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="19">
+        <v>8</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="37">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="25">
+        <v>5</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="B28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="19">
+        <v>16</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="19">
+        <v>16</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="37">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="B30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="39">
-        <f t="shared" si="0"/>
+      <c r="E30" s="19">
+        <v>16</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="37">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="37">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="18" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="37">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E13" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A14" s="39">
-        <f t="shared" si="0"/>
+      <c r="B33" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="29">
+        <v>8</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="37">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="29">
+        <v>8</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="37">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="32">
+        <v>1</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="37">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="32">
+        <v>1</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="37">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="37">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="20">
-        <v>1</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="39">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="39">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="18" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="37">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="37">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="20">
-        <v>5</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="39">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="39">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="20">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="20">
-        <v>16</v>
-      </c>
-      <c r="F19" s="14">
-        <v>2</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="39">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="20">
-        <v>6</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="20">
-        <v>6</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="39">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="20">
-        <v>6</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="39">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="20">
-        <v>8</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="39">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="20">
-        <v>8</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="39">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="20">
-        <v>8</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="39">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="20">
-        <v>8</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="39">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="26">
-        <v>5</v>
-      </c>
-      <c r="F27" s="14">
-        <v>1</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="20">
-        <v>16</v>
-      </c>
-      <c r="F28" s="14">
-        <v>2</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="39">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="20">
-        <v>16</v>
-      </c>
-      <c r="F29" s="14">
-        <v>2</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="39">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="20">
-        <v>16</v>
-      </c>
-      <c r="F30" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="39">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="39">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="39">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="31">
-        <v>8</v>
-      </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="39">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="31">
-        <v>8</v>
-      </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="28"/>
-    </row>
-    <row r="35" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="39">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="34">
-        <v>1</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="39">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="34">
-        <v>1</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="39">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="39">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="39">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="39">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="20">
+      <c r="E40" s="19">
         <v>6</v>
       </c>
     </row>
@@ -2042,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2088,7 +2078,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2136,44 +2126,44 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>136</v>
+        <v>114</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4105740D-F07F-4961-AD4A-03FA09AFD98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -399,10 +398,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MediaFg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>產出媒體檔記號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -484,13 +479,6 @@
 1.撥貸(計件代碼變更)，為撥款日期；計件代碼變更不可跨工作月
 2.部分償還、提前結案，為會計日
 3.保費檢核追回，為該工作月的業績止日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:尚未產生媒體檔
-1:已產生發放媒體-(不可刪除與異動)
-2:人工維護後之原資料(不出媒體)
-3.保費檢核結果為Y時已追回撥款，還款不用追回</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -584,11 +572,19 @@
 2:跨工作月調整</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>MediaFg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.保費檢核結果為Y時已追回撥款，還款不用追回</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -926,9 +922,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -944,9 +940,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -984,9 +980,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1021,7 +1017,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1056,7 +1052,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1229,11 +1225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1250,7 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1282,7 +1278,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>18</v>
@@ -1334,7 +1330,7 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="5"/>
@@ -1369,13 +1365,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1387,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>62</v>
@@ -1399,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1408,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>63</v>
@@ -1462,10 +1458,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>25</v>
@@ -1474,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1501,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>64</v>
@@ -1522,7 +1518,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>77</v>
@@ -1540,10 +1536,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>34</v>
@@ -1552,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1576,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1585,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>65</v>
@@ -1627,7 +1623,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>67</v>
@@ -1693,7 +1689,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>70</v>
@@ -1750,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1759,7 +1755,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>84</v>
@@ -1774,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1783,7 +1779,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>73</v>
@@ -1798,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1822,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1831,7 +1827,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>75</v>
@@ -1867,10 +1863,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>83</v>
@@ -1880,7 +1876,7 @@
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1903,16 +1899,16 @@
       <c r="F34" s="42"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="37">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B35" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>96</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>97</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>85</v>
@@ -1922,7 +1918,7 @@
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="34" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1931,10 +1927,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>25</v>
@@ -1944,7 +1940,7 @@
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2032,7 +2028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2061,7 +2057,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2078,7 +2074,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2138,32 +2134,32 @@
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F17926F-280D-4CCA-95B3-9A94E374ABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -451,10 +452,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PerfDate Desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo ASC, FacmNo ASC, BormNo ASC</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -465,14 +462,6 @@
   <si>
     <t>findByTxFirst</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findBormNoEq</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerfDate ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>業績日期=系統營業日
@@ -577,14 +566,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3.保費檢核結果為Y時已追回撥款，還款不用追回</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>3.保費檢核結果為Y時已追回撥款，還款不用追回(不產媒體)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBormNoFirst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfDate ASC, LogNo ASC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfDate Desc , LogNo DESC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -922,9 +923,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -940,9 +941,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -980,9 +981,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,7 +1018,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1052,7 +1053,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1225,11 +1226,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42:G43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1250,7 +1251,7 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1395,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1404,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>63</v>
@@ -1458,10 +1459,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>25</v>
@@ -1470,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1497,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>64</v>
@@ -1518,7 +1519,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>77</v>
@@ -1536,10 +1537,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>34</v>
@@ -1548,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1581,7 +1582,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>65</v>
@@ -1623,7 +1624,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>67</v>
@@ -1689,7 +1690,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>70</v>
@@ -1746,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1755,7 +1756,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>84</v>
@@ -1770,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1779,7 +1780,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>73</v>
@@ -1794,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1818,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1905,7 +1906,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>96</v>
@@ -1918,7 +1919,7 @@
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1927,10 +1928,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>25</v>
@@ -1940,7 +1941,7 @@
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2028,12 +2029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2074,7 +2075,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2134,32 +2135,32 @@
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F17926F-280D-4CCA-95B3-9A94E374ABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5664904C-3D00-4293-BB5A-94BF6E596B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -579,6 +579,14 @@
   </si>
   <si>
     <t>PerfDate Desc , LogNo DESC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBormNoEq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfDate ASC</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2030,11 +2038,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2163,6 +2171,17 @@
         <v>138</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5664904C-3D00-4293-BB5A-94BF6E596B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -452,10 +451,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo ASC, FacmNo ASC, BormNo ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>findBormNoLatestFirst</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -556,44 +551,48 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>MediaFg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.保費檢核結果為Y時已追回撥款，還款不用追回(不產媒體)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBormNoFirst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfDate ASC, LogNo ASC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfDate Desc , LogNo DESC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBormNoEq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfDate ASC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>0:未調整(BS996業績重算時,只重算未調整)
 1:同工作月調整   
-2:跨工作月調整</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediaFg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.保費檢核結果為Y時已追回撥款，還款不用追回(不產媒體)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findBormNoFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerfDate ASC, LogNo ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerfDate Desc , LogNo DESC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>findBormNoEq</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerfDate ASC</t>
+2:跨工作月調整(新增)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC, FacmNo ASC, BormNo ASC, WorkMonth DESC</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -931,9 +930,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -949,9 +948,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -989,9 +988,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1026,7 +1025,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,7 +1060,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1234,11 +1233,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1258,7 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1404,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1413,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>63</v>
@@ -1467,10 +1466,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>25</v>
@@ -1479,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1506,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>64</v>
@@ -1527,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>77</v>
@@ -1545,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>34</v>
@@ -1557,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1590,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>65</v>
@@ -1632,7 +1631,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>67</v>
@@ -1698,7 +1697,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>70</v>
@@ -1755,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1764,7 +1763,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>84</v>
@@ -1779,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1788,7 +1787,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>73</v>
@@ -1803,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1827,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1914,7 +1913,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>96</v>
@@ -1927,7 +1926,7 @@
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1936,10 +1935,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>25</v>
@@ -1949,7 +1948,7 @@
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2037,12 +2036,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2082,8 +2081,8 @@
       <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>110</v>
+      <c r="C3" s="35" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2143,43 +2142,43 @@
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AA2A86-C8EA-413C-A393-F1DA472E0B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -139,10 +140,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -588,11 +585,14 @@
     <t>CustNo ASC, FacmNo ASC, BormNo ASC, WorkMonth DESC</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -930,9 +930,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -948,9 +948,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -988,9 +988,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1025,7 +1025,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1060,7 +1060,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1233,11 +1233,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>18</v>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="5"/>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="5"/>
@@ -1373,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1391,10 +1391,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>26</v>
@@ -1403,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1412,10 +1412,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>25</v>
@@ -1466,10 +1466,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>25</v>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1487,10 +1487,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>26</v>
@@ -1505,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="19">
         <v>5</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1526,13 +1526,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="19">
         <v>1</v>
@@ -1544,19 +1544,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="19">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1565,10 +1565,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>25</v>
@@ -1580,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1589,19 +1589,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="19">
         <v>6</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1610,19 +1610,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="19">
         <v>6</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1631,19 +1631,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="19">
         <v>6</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1652,10 +1652,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>24</v>
@@ -1664,7 +1664,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -1673,10 +1673,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>24</v>
@@ -1685,10 +1685,10 @@
         <v>8</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1697,10 +1697,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>24</v>
@@ -1709,7 +1709,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1718,10 +1718,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>24</v>
@@ -1730,7 +1730,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1739,10 +1739,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>25</v>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1763,10 +1763,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>25</v>
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1787,10 +1787,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>25</v>
@@ -1802,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1811,10 +1811,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>25</v>
@@ -1826,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1835,10 +1835,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>25</v>
@@ -1856,7 +1856,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>25</v>
@@ -1871,20 +1871,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="28" t="s">
-        <v>104</v>
-      </c>
       <c r="D33" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="29">
         <v>8</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1893,13 +1893,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>95</v>
-      </c>
       <c r="D34" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="29">
         <v>8</v>
@@ -1913,20 +1913,20 @@
         <v>27</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="32">
         <v>1</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1935,10 +1935,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>25</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1963,7 +1963,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="E37" s="19"/>
     </row>
@@ -1973,13 +1973,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="E38" s="19">
         <v>6</v>
@@ -1991,13 +1991,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>36</v>
-      </c>
       <c r="D39" s="17" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="E39" s="19"/>
     </row>
@@ -2007,13 +2007,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="D40" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="19">
         <v>6</v>
@@ -2036,10 +2036,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
@@ -2065,120 +2065,120 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
